--- a/demo/导表/箱变基础数据.xlsx
+++ b/demo/导表/箱变基础数据.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2B706E-4D6C-401D-B03D-33531E4CC00C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -222,74 +221,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,7 +240,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -563,12 +494,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
@@ -613,7 +549,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
         <v>2200</v>
@@ -656,7 +592,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="2">
-        <v>2.2000000000000002</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>2500</v>
@@ -699,7 +635,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="2">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>2750</v>
@@ -742,7 +678,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7">
         <v>3300</v>
@@ -785,7 +721,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="2">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
         <v>3520</v>
@@ -828,7 +764,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="2">
-        <v>3.3</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
         <v>3520</v>
@@ -871,7 +807,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="2">
-        <v>3.4</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>3520</v>
@@ -914,7 +850,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="2">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>4000</v>

--- a/demo/导表/箱变基础数据.xlsx
+++ b/demo/导表/箱变基础数据.xlsx
@@ -221,6 +221,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -240,7 +308,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -498,7 +566,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -549,7 +617,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="2">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C2" s="3">
         <v>2200</v>
@@ -592,7 +660,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="2">
-        <v>22</v>
+        <v>2200</v>
       </c>
       <c r="C3" s="3">
         <v>2500</v>
@@ -635,7 +703,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="2">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="C4" s="3">
         <v>2750</v>
@@ -678,7 +746,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="6">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="C5" s="7">
         <v>3300</v>
@@ -721,7 +789,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="2">
-        <v>32</v>
+        <v>3200</v>
       </c>
       <c r="C6" s="3">
         <v>3520</v>
@@ -764,7 +832,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="2">
-        <v>33</v>
+        <v>3300</v>
       </c>
       <c r="C7" s="3">
         <v>3520</v>
@@ -807,7 +875,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="2">
-        <v>34</v>
+        <v>3400</v>
       </c>
       <c r="C8" s="3">
         <v>3520</v>
@@ -850,7 +918,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="2">
-        <v>36</v>
+        <v>3600</v>
       </c>
       <c r="C9" s="3">
         <v>4000</v>
